--- a/artfynd/A 35869-2023.xlsx
+++ b/artfynd/A 35869-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111523727</v>
+        <v>111523657</v>
       </c>
       <c r="B2" t="n">
-        <v>89845</v>
+        <v>89686</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>497338.5868253836</v>
+        <v>497390.1961838813</v>
       </c>
       <c r="R2" t="n">
-        <v>6754122.194367126</v>
+        <v>6754097.842248607</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111523730</v>
+        <v>111523728</v>
       </c>
       <c r="B3" t="n">
-        <v>89405</v>
+        <v>89686</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111523697</v>
+        <v>111523731</v>
       </c>
       <c r="B4" t="n">
-        <v>77515</v>
+        <v>89845</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>1209</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>497380.5053056676</v>
+        <v>497307.3714758331</v>
       </c>
       <c r="R4" t="n">
-        <v>6754165.927741241</v>
+        <v>6754063.864355386</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111523728</v>
+        <v>111523740</v>
       </c>
       <c r="B5" t="n">
-        <v>89686</v>
+        <v>56398</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>658</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>497338.5868253836</v>
+        <v>497366.3615979423</v>
       </c>
       <c r="R5" t="n">
-        <v>6754122.194367126</v>
+        <v>6754139.679549156</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1102,6 +1102,11 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Gamla hack</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1128,10 +1133,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111523695</v>
+        <v>111523724</v>
       </c>
       <c r="B6" t="n">
-        <v>5113</v>
+        <v>93881</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1149,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100526</v>
+        <v>2869</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Sphagnum wulfianum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>Girg.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>497354.1644349985</v>
+        <v>497291.3182300103</v>
       </c>
       <c r="R6" t="n">
-        <v>6754111.484663551</v>
+        <v>6754089.649475355</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111523656</v>
+        <v>111523712</v>
       </c>
       <c r="B7" t="n">
-        <v>89845</v>
+        <v>89405</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1252,25 +1257,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1285,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>497390.1961838813</v>
+        <v>497301.0581945881</v>
       </c>
       <c r="R7" t="n">
-        <v>6754097.842248607</v>
+        <v>6754088.183226726</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1352,10 +1357,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111523724</v>
+        <v>111523727</v>
       </c>
       <c r="B8" t="n">
-        <v>93881</v>
+        <v>89845</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1364,25 +1369,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2869</v>
+        <v>1209</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Girg.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1397,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>497291.3182300103</v>
+        <v>497338.5868253836</v>
       </c>
       <c r="R8" t="n">
-        <v>6754089.649475355</v>
+        <v>6754122.194367126</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1464,10 +1469,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111523701</v>
+        <v>111523656</v>
       </c>
       <c r="B9" t="n">
-        <v>89686</v>
+        <v>89845</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1476,25 +1481,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1504,10 +1509,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>497367.2942720717</v>
+        <v>497390.1961838813</v>
       </c>
       <c r="R9" t="n">
-        <v>6754083.757028132</v>
+        <v>6754097.842248607</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1576,10 +1581,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111523657</v>
+        <v>111523695</v>
       </c>
       <c r="B10" t="n">
-        <v>89686</v>
+        <v>5113</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1588,25 +1593,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>658</v>
+        <v>100526</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1621,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>497390.1961838813</v>
+        <v>497354.1644349985</v>
       </c>
       <c r="R10" t="n">
-        <v>6754097.842248607</v>
+        <v>6754111.484663551</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1688,10 +1693,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111523740</v>
+        <v>111523683</v>
       </c>
       <c r="B11" t="n">
-        <v>56398</v>
+        <v>89845</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1700,25 +1705,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>1209</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1728,10 +1733,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>497366.3615979423</v>
+        <v>497391.6869587752</v>
       </c>
       <c r="R11" t="n">
-        <v>6754139.679549156</v>
+        <v>6754138.20205555</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1774,11 +1779,6 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Gamla hack</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1805,10 +1805,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111523712</v>
+        <v>111523697</v>
       </c>
       <c r="B12" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1821,21 +1821,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1845,10 +1845,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>497301.0581945881</v>
+        <v>497380.5053056676</v>
       </c>
       <c r="R12" t="n">
-        <v>6754088.183226726</v>
+        <v>6754165.927741241</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1917,10 +1917,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111523683</v>
+        <v>111523741</v>
       </c>
       <c r="B13" t="n">
-        <v>89845</v>
+        <v>89686</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1929,25 +1929,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1957,10 +1957,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>497391.6869587752</v>
+        <v>497384.3941364431</v>
       </c>
       <c r="R13" t="n">
-        <v>6754138.20205555</v>
+        <v>6754155.713205664</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2029,10 +2029,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111523741</v>
+        <v>111523730</v>
       </c>
       <c r="B14" t="n">
-        <v>89686</v>
+        <v>89405</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2045,21 +2045,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2069,10 +2069,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>497384.3941364431</v>
+        <v>497338.5868253836</v>
       </c>
       <c r="R14" t="n">
-        <v>6754155.713205664</v>
+        <v>6754122.194367126</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2141,10 +2141,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111523731</v>
+        <v>111523701</v>
       </c>
       <c r="B15" t="n">
-        <v>89845</v>
+        <v>89686</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2153,25 +2153,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2181,10 +2181,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>497307.3714758331</v>
+        <v>497367.2942720717</v>
       </c>
       <c r="R15" t="n">
-        <v>6754063.864355386</v>
+        <v>6754083.757028132</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>

--- a/artfynd/A 35869-2023.xlsx
+++ b/artfynd/A 35869-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111523657</v>
+        <v>111523701</v>
       </c>
       <c r="B2" t="n">
         <v>89686</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>497390.1961838813</v>
+        <v>497367.2942720717</v>
       </c>
       <c r="R2" t="n">
-        <v>6754097.842248607</v>
+        <v>6754083.757028132</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111523728</v>
+        <v>111523656</v>
       </c>
       <c r="B3" t="n">
-        <v>89686</v>
+        <v>89845</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>497338.5868253836</v>
+        <v>497390.1961838813</v>
       </c>
       <c r="R3" t="n">
-        <v>6754122.194367126</v>
+        <v>6754097.842248607</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111523731</v>
+        <v>111523730</v>
       </c>
       <c r="B4" t="n">
-        <v>89845</v>
+        <v>89405</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>497307.3714758331</v>
+        <v>497338.5868253836</v>
       </c>
       <c r="R4" t="n">
-        <v>6754063.864355386</v>
+        <v>6754122.194367126</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111523740</v>
+        <v>111523697</v>
       </c>
       <c r="B5" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>497366.3615979423</v>
+        <v>497380.5053056676</v>
       </c>
       <c r="R5" t="n">
-        <v>6754139.679549156</v>
+        <v>6754165.927741241</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1102,11 +1102,6 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Gamla hack</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1133,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111523724</v>
+        <v>111523727</v>
       </c>
       <c r="B6" t="n">
-        <v>93881</v>
+        <v>89845</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1145,25 +1140,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2869</v>
+        <v>1209</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Girg.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1173,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>497291.3182300103</v>
+        <v>497338.5868253836</v>
       </c>
       <c r="R6" t="n">
-        <v>6754089.649475355</v>
+        <v>6754122.194367126</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1245,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111523712</v>
+        <v>111523683</v>
       </c>
       <c r="B7" t="n">
-        <v>89405</v>
+        <v>89845</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1257,25 +1252,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1285,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>497301.0581945881</v>
+        <v>497391.6869587752</v>
       </c>
       <c r="R7" t="n">
-        <v>6754088.183226726</v>
+        <v>6754138.20205555</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1357,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111523727</v>
+        <v>111523724</v>
       </c>
       <c r="B8" t="n">
-        <v>89845</v>
+        <v>93881</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1369,25 +1364,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1209</v>
+        <v>2869</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Sphagnum wulfianum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>Girg.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1397,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>497338.5868253836</v>
+        <v>497291.3182300103</v>
       </c>
       <c r="R8" t="n">
-        <v>6754122.194367126</v>
+        <v>6754089.649475355</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1469,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111523656</v>
+        <v>111523741</v>
       </c>
       <c r="B9" t="n">
-        <v>89845</v>
+        <v>89686</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1481,25 +1476,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1509,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>497390.1961838813</v>
+        <v>497384.3941364431</v>
       </c>
       <c r="R9" t="n">
-        <v>6754097.842248607</v>
+        <v>6754155.713205664</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1581,10 +1576,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111523695</v>
+        <v>111523731</v>
       </c>
       <c r="B10" t="n">
-        <v>5113</v>
+        <v>89845</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1593,25 +1588,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100526</v>
+        <v>1209</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1621,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>497354.1644349985</v>
+        <v>497307.3714758331</v>
       </c>
       <c r="R10" t="n">
-        <v>6754111.484663551</v>
+        <v>6754063.864355386</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1693,10 +1688,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111523683</v>
+        <v>111523740</v>
       </c>
       <c r="B11" t="n">
-        <v>89845</v>
+        <v>56398</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1705,25 +1700,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1209</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1733,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>497391.6869587752</v>
+        <v>497366.3615979423</v>
       </c>
       <c r="R11" t="n">
-        <v>6754138.20205555</v>
+        <v>6754139.679549156</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1779,6 +1774,11 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Gamla hack</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1805,10 +1805,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111523697</v>
+        <v>111523728</v>
       </c>
       <c r="B12" t="n">
-        <v>77515</v>
+        <v>89686</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1821,21 +1821,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1845,10 +1845,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>497380.5053056676</v>
+        <v>497338.5868253836</v>
       </c>
       <c r="R12" t="n">
-        <v>6754165.927741241</v>
+        <v>6754122.194367126</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111523741</v>
+        <v>111523657</v>
       </c>
       <c r="B13" t="n">
         <v>89686</v>
@@ -1957,10 +1957,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>497384.3941364431</v>
+        <v>497390.1961838813</v>
       </c>
       <c r="R13" t="n">
-        <v>6754155.713205664</v>
+        <v>6754097.842248607</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2029,7 +2029,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111523730</v>
+        <v>111523712</v>
       </c>
       <c r="B14" t="n">
         <v>89405</v>
@@ -2069,10 +2069,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>497338.5868253836</v>
+        <v>497301.0581945881</v>
       </c>
       <c r="R14" t="n">
-        <v>6754122.194367126</v>
+        <v>6754088.183226726</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2141,10 +2141,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111523701</v>
+        <v>111523695</v>
       </c>
       <c r="B15" t="n">
-        <v>89686</v>
+        <v>5113</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2153,25 +2153,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>658</v>
+        <v>100526</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2181,10 +2181,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>497367.2942720717</v>
+        <v>497354.1644349985</v>
       </c>
       <c r="R15" t="n">
-        <v>6754083.757028132</v>
+        <v>6754111.484663551</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>

--- a/artfynd/A 35869-2023.xlsx
+++ b/artfynd/A 35869-2023.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111523656</v>
+        <v>111523741</v>
       </c>
       <c r="B3" t="n">
-        <v>89845</v>
+        <v>89686</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>497390.1961838813</v>
+        <v>497384.3941364431</v>
       </c>
       <c r="R3" t="n">
-        <v>6754097.842248607</v>
+        <v>6754155.713205664</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111523730</v>
+        <v>111523724</v>
       </c>
       <c r="B4" t="n">
-        <v>89405</v>
+        <v>93881</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>2869</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Sphagnum wulfianum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Girg.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>497338.5868253836</v>
+        <v>497291.3182300103</v>
       </c>
       <c r="R4" t="n">
-        <v>6754122.194367126</v>
+        <v>6754089.649475355</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111523697</v>
+        <v>111523740</v>
       </c>
       <c r="B5" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>497380.5053056676</v>
+        <v>497366.3615979423</v>
       </c>
       <c r="R5" t="n">
-        <v>6754165.927741241</v>
+        <v>6754139.679549156</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1102,6 +1102,11 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Gamla hack</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1128,10 +1133,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111523727</v>
+        <v>111523695</v>
       </c>
       <c r="B6" t="n">
-        <v>89845</v>
+        <v>5113</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,25 +1145,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1209</v>
+        <v>100526</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>497338.5868253836</v>
+        <v>497354.1644349985</v>
       </c>
       <c r="R6" t="n">
-        <v>6754122.194367126</v>
+        <v>6754111.484663551</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111523683</v>
+        <v>111523730</v>
       </c>
       <c r="B7" t="n">
-        <v>89845</v>
+        <v>89405</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1252,25 +1257,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1285,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>497391.6869587752</v>
+        <v>497338.5868253836</v>
       </c>
       <c r="R7" t="n">
-        <v>6754138.20205555</v>
+        <v>6754122.194367126</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1352,10 +1357,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111523724</v>
+        <v>111523683</v>
       </c>
       <c r="B8" t="n">
-        <v>93881</v>
+        <v>89845</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1364,25 +1369,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2869</v>
+        <v>1209</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Girg.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1397,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>497291.3182300103</v>
+        <v>497391.6869587752</v>
       </c>
       <c r="R8" t="n">
-        <v>6754089.649475355</v>
+        <v>6754138.20205555</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1464,10 +1469,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111523741</v>
+        <v>111523731</v>
       </c>
       <c r="B9" t="n">
-        <v>89686</v>
+        <v>89845</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1476,25 +1481,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1504,10 +1509,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>497384.3941364431</v>
+        <v>497307.3714758331</v>
       </c>
       <c r="R9" t="n">
-        <v>6754155.713205664</v>
+        <v>6754063.864355386</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1576,10 +1581,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111523731</v>
+        <v>111523728</v>
       </c>
       <c r="B10" t="n">
-        <v>89845</v>
+        <v>89686</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1588,25 +1593,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1621,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>497307.3714758331</v>
+        <v>497338.5868253836</v>
       </c>
       <c r="R10" t="n">
-        <v>6754063.864355386</v>
+        <v>6754122.194367126</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1688,10 +1693,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111523740</v>
+        <v>111523697</v>
       </c>
       <c r="B11" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1704,21 +1709,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1728,10 +1733,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>497366.3615979423</v>
+        <v>497380.5053056676</v>
       </c>
       <c r="R11" t="n">
-        <v>6754139.679549156</v>
+        <v>6754165.927741241</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1774,11 +1779,6 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Gamla hack</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1805,10 +1805,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111523728</v>
+        <v>111523656</v>
       </c>
       <c r="B12" t="n">
-        <v>89686</v>
+        <v>89845</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1817,25 +1817,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1845,10 +1845,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>497338.5868253836</v>
+        <v>497390.1961838813</v>
       </c>
       <c r="R12" t="n">
-        <v>6754122.194367126</v>
+        <v>6754097.842248607</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1917,10 +1917,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111523657</v>
+        <v>111523727</v>
       </c>
       <c r="B13" t="n">
-        <v>89686</v>
+        <v>89845</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1929,25 +1929,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1957,10 +1957,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>497390.1961838813</v>
+        <v>497338.5868253836</v>
       </c>
       <c r="R13" t="n">
-        <v>6754097.842248607</v>
+        <v>6754122.194367126</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2029,10 +2029,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111523712</v>
+        <v>111523657</v>
       </c>
       <c r="B14" t="n">
-        <v>89405</v>
+        <v>89686</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2045,21 +2045,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2069,10 +2069,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>497301.0581945881</v>
+        <v>497390.1961838813</v>
       </c>
       <c r="R14" t="n">
-        <v>6754088.183226726</v>
+        <v>6754097.842248607</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2141,10 +2141,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111523695</v>
+        <v>111523712</v>
       </c>
       <c r="B15" t="n">
-        <v>5113</v>
+        <v>89405</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2153,25 +2153,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100526</v>
+        <v>1202</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2181,10 +2181,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>497354.1644349985</v>
+        <v>497301.0581945881</v>
       </c>
       <c r="R15" t="n">
-        <v>6754111.484663551</v>
+        <v>6754088.183226726</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>

--- a/artfynd/A 35869-2023.xlsx
+++ b/artfynd/A 35869-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111523701</v>
+        <v>111523657</v>
       </c>
       <c r="B2" t="n">
         <v>89686</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>497367.2942720717</v>
+        <v>497390.1961838813</v>
       </c>
       <c r="R2" t="n">
-        <v>6754083.757028132</v>
+        <v>6754097.842248607</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111523741</v>
+        <v>111523727</v>
       </c>
       <c r="B3" t="n">
-        <v>89686</v>
+        <v>89845</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>497384.3941364431</v>
+        <v>497338.5868253836</v>
       </c>
       <c r="R3" t="n">
-        <v>6754155.713205664</v>
+        <v>6754122.194367126</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111523724</v>
+        <v>111523656</v>
       </c>
       <c r="B4" t="n">
-        <v>93881</v>
+        <v>89845</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2869</v>
+        <v>1209</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Girg.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>497291.3182300103</v>
+        <v>497390.1961838813</v>
       </c>
       <c r="R4" t="n">
-        <v>6754089.649475355</v>
+        <v>6754097.842248607</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111523740</v>
+        <v>111523741</v>
       </c>
       <c r="B5" t="n">
-        <v>56398</v>
+        <v>89686</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>658</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>497366.3615979423</v>
+        <v>497384.3941364431</v>
       </c>
       <c r="R5" t="n">
-        <v>6754139.679549156</v>
+        <v>6754155.713205664</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1102,11 +1102,6 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Gamla hack</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1133,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111523695</v>
+        <v>111523731</v>
       </c>
       <c r="B6" t="n">
-        <v>5113</v>
+        <v>89845</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1145,25 +1140,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100526</v>
+        <v>1209</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1173,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>497354.1644349985</v>
+        <v>497307.3714758331</v>
       </c>
       <c r="R6" t="n">
-        <v>6754111.484663551</v>
+        <v>6754063.864355386</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1245,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111523730</v>
+        <v>111523683</v>
       </c>
       <c r="B7" t="n">
-        <v>89405</v>
+        <v>89845</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1257,25 +1252,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1285,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>497338.5868253836</v>
+        <v>497391.6869587752</v>
       </c>
       <c r="R7" t="n">
-        <v>6754122.194367126</v>
+        <v>6754138.20205555</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1357,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111523683</v>
+        <v>111523728</v>
       </c>
       <c r="B8" t="n">
-        <v>89845</v>
+        <v>89686</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1369,25 +1364,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1397,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>497391.6869587752</v>
+        <v>497338.5868253836</v>
       </c>
       <c r="R8" t="n">
-        <v>6754138.20205555</v>
+        <v>6754122.194367126</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1469,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111523731</v>
+        <v>111523695</v>
       </c>
       <c r="B9" t="n">
-        <v>89845</v>
+        <v>5113</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1481,25 +1476,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1209</v>
+        <v>100526</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1509,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>497307.3714758331</v>
+        <v>497354.1644349985</v>
       </c>
       <c r="R9" t="n">
-        <v>6754063.864355386</v>
+        <v>6754111.484663551</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1581,10 +1576,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111523728</v>
+        <v>111523712</v>
       </c>
       <c r="B10" t="n">
-        <v>89686</v>
+        <v>89405</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1597,21 +1592,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1621,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>497338.5868253836</v>
+        <v>497301.0581945881</v>
       </c>
       <c r="R10" t="n">
-        <v>6754122.194367126</v>
+        <v>6754088.183226726</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1693,10 +1688,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111523697</v>
+        <v>111523730</v>
       </c>
       <c r="B11" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1709,21 +1704,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1733,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>497380.5053056676</v>
+        <v>497338.5868253836</v>
       </c>
       <c r="R11" t="n">
-        <v>6754165.927741241</v>
+        <v>6754122.194367126</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1805,10 +1800,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111523656</v>
+        <v>111523701</v>
       </c>
       <c r="B12" t="n">
-        <v>89845</v>
+        <v>89686</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1817,25 +1812,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1845,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>497390.1961838813</v>
+        <v>497367.2942720717</v>
       </c>
       <c r="R12" t="n">
-        <v>6754097.842248607</v>
+        <v>6754083.757028132</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1917,10 +1912,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111523727</v>
+        <v>111523740</v>
       </c>
       <c r="B13" t="n">
-        <v>89845</v>
+        <v>56398</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1929,25 +1924,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1209</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1957,10 +1952,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>497338.5868253836</v>
+        <v>497366.3615979423</v>
       </c>
       <c r="R13" t="n">
-        <v>6754122.194367126</v>
+        <v>6754139.679549156</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2003,6 +1998,11 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Gamla hack</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2029,10 +2029,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111523657</v>
+        <v>111523724</v>
       </c>
       <c r="B14" t="n">
-        <v>89686</v>
+        <v>93881</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2041,25 +2041,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>658</v>
+        <v>2869</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Sphagnum wulfianum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>Girg.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2069,10 +2069,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>497390.1961838813</v>
+        <v>497291.3182300103</v>
       </c>
       <c r="R14" t="n">
-        <v>6754097.842248607</v>
+        <v>6754089.649475355</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2141,10 +2141,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111523712</v>
+        <v>111523697</v>
       </c>
       <c r="B15" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2157,21 +2157,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2181,10 +2181,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>497301.0581945881</v>
+        <v>497380.5053056676</v>
       </c>
       <c r="R15" t="n">
-        <v>6754088.183226726</v>
+        <v>6754165.927741241</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>

--- a/artfynd/A 35869-2023.xlsx
+++ b/artfynd/A 35869-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111523657</v>
+        <v>111523701</v>
       </c>
       <c r="B2" t="n">
         <v>89686</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>497390.1961838813</v>
+        <v>497367.2942720717</v>
       </c>
       <c r="R2" t="n">
-        <v>6754097.842248607</v>
+        <v>6754083.757028132</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111523727</v>
+        <v>111523695</v>
       </c>
       <c r="B3" t="n">
-        <v>89845</v>
+        <v>5113</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1209</v>
+        <v>100526</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>497338.5868253836</v>
+        <v>497354.1644349985</v>
       </c>
       <c r="R3" t="n">
-        <v>6754122.194367126</v>
+        <v>6754111.484663551</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111523656</v>
+        <v>111523683</v>
       </c>
       <c r="B4" t="n">
         <v>89845</v>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>497390.1961838813</v>
+        <v>497391.6869587752</v>
       </c>
       <c r="R4" t="n">
-        <v>6754097.842248607</v>
+        <v>6754138.20205555</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111523741</v>
+        <v>111523724</v>
       </c>
       <c r="B5" t="n">
-        <v>89686</v>
+        <v>93881</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,25 +1028,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>658</v>
+        <v>2869</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Sphagnum wulfianum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>Girg.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>497384.3941364431</v>
+        <v>497291.3182300103</v>
       </c>
       <c r="R5" t="n">
-        <v>6754155.713205664</v>
+        <v>6754089.649475355</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111523731</v>
+        <v>111523657</v>
       </c>
       <c r="B6" t="n">
-        <v>89845</v>
+        <v>89686</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>497307.3714758331</v>
+        <v>497390.1961838813</v>
       </c>
       <c r="R6" t="n">
-        <v>6754063.864355386</v>
+        <v>6754097.842248607</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111523683</v>
+        <v>111523731</v>
       </c>
       <c r="B7" t="n">
         <v>89845</v>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>497391.6869587752</v>
+        <v>497307.3714758331</v>
       </c>
       <c r="R7" t="n">
-        <v>6754138.20205555</v>
+        <v>6754063.864355386</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111523728</v>
+        <v>111523727</v>
       </c>
       <c r="B8" t="n">
-        <v>89686</v>
+        <v>89845</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1364,25 +1364,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111523695</v>
+        <v>111523656</v>
       </c>
       <c r="B9" t="n">
-        <v>5113</v>
+        <v>89845</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1476,25 +1476,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100526</v>
+        <v>1209</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>497354.1644349985</v>
+        <v>497390.1961838813</v>
       </c>
       <c r="R9" t="n">
-        <v>6754111.484663551</v>
+        <v>6754097.842248607</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1688,10 +1688,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111523730</v>
+        <v>111523741</v>
       </c>
       <c r="B11" t="n">
-        <v>89405</v>
+        <v>89686</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1704,21 +1704,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>497338.5868253836</v>
+        <v>497384.3941364431</v>
       </c>
       <c r="R11" t="n">
-        <v>6754122.194367126</v>
+        <v>6754155.713205664</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111523701</v>
+        <v>111523728</v>
       </c>
       <c r="B12" t="n">
         <v>89686</v>
@@ -1840,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>497367.2942720717</v>
+        <v>497338.5868253836</v>
       </c>
       <c r="R12" t="n">
-        <v>6754083.757028132</v>
+        <v>6754122.194367126</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2029,10 +2029,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111523724</v>
+        <v>111523730</v>
       </c>
       <c r="B14" t="n">
-        <v>93881</v>
+        <v>89405</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2041,25 +2041,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2869</v>
+        <v>1202</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Girg.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2069,10 +2069,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>497291.3182300103</v>
+        <v>497338.5868253836</v>
       </c>
       <c r="R14" t="n">
-        <v>6754089.649475355</v>
+        <v>6754122.194367126</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>

--- a/artfynd/A 35869-2023.xlsx
+++ b/artfynd/A 35869-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111523701</v>
+        <v>111523657</v>
       </c>
       <c r="B2" t="n">
         <v>89686</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>497367.2942720717</v>
+        <v>497390.1961838813</v>
       </c>
       <c r="R2" t="n">
-        <v>6754083.757028132</v>
+        <v>6754097.842248607</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111523695</v>
+        <v>111523724</v>
       </c>
       <c r="B3" t="n">
-        <v>5113</v>
+        <v>93881</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100526</v>
+        <v>2869</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Sphagnum wulfianum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>Girg.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>497354.1644349985</v>
+        <v>497291.3182300103</v>
       </c>
       <c r="R3" t="n">
-        <v>6754111.484663551</v>
+        <v>6754089.649475355</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111523683</v>
+        <v>111523697</v>
       </c>
       <c r="B4" t="n">
-        <v>89845</v>
+        <v>77515</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1209</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>497391.6869587752</v>
+        <v>497380.5053056676</v>
       </c>
       <c r="R4" t="n">
-        <v>6754138.20205555</v>
+        <v>6754165.927741241</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111523724</v>
+        <v>111523730</v>
       </c>
       <c r="B5" t="n">
-        <v>93881</v>
+        <v>89405</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,25 +1028,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2869</v>
+        <v>1202</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Girg.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>497291.3182300103</v>
+        <v>497338.5868253836</v>
       </c>
       <c r="R5" t="n">
-        <v>6754089.649475355</v>
+        <v>6754122.194367126</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111523657</v>
+        <v>111523712</v>
       </c>
       <c r="B6" t="n">
-        <v>89686</v>
+        <v>89405</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>497390.1961838813</v>
+        <v>497301.0581945881</v>
       </c>
       <c r="R6" t="n">
-        <v>6754097.842248607</v>
+        <v>6754088.183226726</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111523727</v>
+        <v>111523701</v>
       </c>
       <c r="B8" t="n">
-        <v>89845</v>
+        <v>89686</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1364,25 +1364,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>497338.5868253836</v>
+        <v>497367.2942720717</v>
       </c>
       <c r="R8" t="n">
-        <v>6754122.194367126</v>
+        <v>6754083.757028132</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111523656</v>
+        <v>111523741</v>
       </c>
       <c r="B9" t="n">
-        <v>89845</v>
+        <v>89686</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1476,25 +1476,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>497390.1961838813</v>
+        <v>497384.3941364431</v>
       </c>
       <c r="R9" t="n">
-        <v>6754097.842248607</v>
+        <v>6754155.713205664</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1576,10 +1576,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111523712</v>
+        <v>111523728</v>
       </c>
       <c r="B10" t="n">
-        <v>89405</v>
+        <v>89686</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1592,21 +1592,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>497301.0581945881</v>
+        <v>497338.5868253836</v>
       </c>
       <c r="R10" t="n">
-        <v>6754088.183226726</v>
+        <v>6754122.194367126</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1688,10 +1688,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111523741</v>
+        <v>111523740</v>
       </c>
       <c r="B11" t="n">
-        <v>89686</v>
+        <v>56398</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1704,21 +1704,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>658</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>497384.3941364431</v>
+        <v>497366.3615979423</v>
       </c>
       <c r="R11" t="n">
-        <v>6754155.713205664</v>
+        <v>6754139.679549156</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1774,6 +1774,11 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Gamla hack</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1800,10 +1805,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111523728</v>
+        <v>111523727</v>
       </c>
       <c r="B12" t="n">
-        <v>89686</v>
+        <v>89845</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1812,25 +1817,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1912,10 +1917,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111523740</v>
+        <v>111523695</v>
       </c>
       <c r="B13" t="n">
-        <v>56398</v>
+        <v>5113</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1924,25 +1929,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>100526</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1952,10 +1957,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>497366.3615979423</v>
+        <v>497354.1644349985</v>
       </c>
       <c r="R13" t="n">
-        <v>6754139.679549156</v>
+        <v>6754111.484663551</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1998,11 +2003,6 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Gamla hack</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2029,10 +2029,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111523730</v>
+        <v>111523656</v>
       </c>
       <c r="B14" t="n">
-        <v>89405</v>
+        <v>89845</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2041,25 +2041,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2069,10 +2069,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>497338.5868253836</v>
+        <v>497390.1961838813</v>
       </c>
       <c r="R14" t="n">
-        <v>6754122.194367126</v>
+        <v>6754097.842248607</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2141,10 +2141,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111523697</v>
+        <v>111523683</v>
       </c>
       <c r="B15" t="n">
-        <v>77515</v>
+        <v>89845</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2153,25 +2153,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>1209</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2181,10 +2181,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>497380.5053056676</v>
+        <v>497391.6869587752</v>
       </c>
       <c r="R15" t="n">
-        <v>6754165.927741241</v>
+        <v>6754138.20205555</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>

--- a/artfynd/A 35869-2023.xlsx
+++ b/artfynd/A 35869-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111523657</v>
+        <v>111523683</v>
       </c>
       <c r="B2" t="n">
-        <v>89686</v>
+        <v>89845</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>497390.1961838813</v>
+        <v>497391.6869587752</v>
       </c>
       <c r="R2" t="n">
-        <v>6754097.842248607</v>
+        <v>6754138.20205555</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111523724</v>
+        <v>111523741</v>
       </c>
       <c r="B3" t="n">
-        <v>93881</v>
+        <v>89686</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2869</v>
+        <v>658</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Girg.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>497291.3182300103</v>
+        <v>497384.3941364431</v>
       </c>
       <c r="R3" t="n">
-        <v>6754089.649475355</v>
+        <v>6754155.713205664</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111523697</v>
+        <v>111523730</v>
       </c>
       <c r="B4" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>497380.5053056676</v>
+        <v>497338.5868253836</v>
       </c>
       <c r="R4" t="n">
-        <v>6754165.927741241</v>
+        <v>6754122.194367126</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111523730</v>
+        <v>111523657</v>
       </c>
       <c r="B5" t="n">
-        <v>89405</v>
+        <v>89686</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>497338.5868253836</v>
+        <v>497390.1961838813</v>
       </c>
       <c r="R5" t="n">
-        <v>6754122.194367126</v>
+        <v>6754097.842248607</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111523731</v>
+        <v>111523728</v>
       </c>
       <c r="B7" t="n">
-        <v>89845</v>
+        <v>89686</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1252,25 +1252,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>497307.3714758331</v>
+        <v>497338.5868253836</v>
       </c>
       <c r="R7" t="n">
-        <v>6754063.864355386</v>
+        <v>6754122.194367126</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111523701</v>
+        <v>111523695</v>
       </c>
       <c r="B8" t="n">
-        <v>89686</v>
+        <v>5113</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1364,25 +1364,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>658</v>
+        <v>100526</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>497367.2942720717</v>
+        <v>497354.1644349985</v>
       </c>
       <c r="R8" t="n">
-        <v>6754083.757028132</v>
+        <v>6754111.484663551</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111523741</v>
+        <v>111523724</v>
       </c>
       <c r="B9" t="n">
-        <v>89686</v>
+        <v>93881</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1476,25 +1476,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>658</v>
+        <v>2869</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Sphagnum wulfianum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>Girg.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>497384.3941364431</v>
+        <v>497291.3182300103</v>
       </c>
       <c r="R9" t="n">
-        <v>6754155.713205664</v>
+        <v>6754089.649475355</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1576,10 +1576,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111523728</v>
+        <v>111523727</v>
       </c>
       <c r="B10" t="n">
-        <v>89686</v>
+        <v>89845</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1588,25 +1588,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1688,10 +1688,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111523740</v>
+        <v>111523697</v>
       </c>
       <c r="B11" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1704,21 +1704,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>497366.3615979423</v>
+        <v>497380.5053056676</v>
       </c>
       <c r="R11" t="n">
-        <v>6754139.679549156</v>
+        <v>6754165.927741241</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1774,11 +1774,6 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Gamla hack</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1805,10 +1800,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111523727</v>
+        <v>111523701</v>
       </c>
       <c r="B12" t="n">
-        <v>89845</v>
+        <v>89686</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1817,25 +1812,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1845,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>497338.5868253836</v>
+        <v>497367.2942720717</v>
       </c>
       <c r="R12" t="n">
-        <v>6754122.194367126</v>
+        <v>6754083.757028132</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1917,10 +1912,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111523695</v>
+        <v>111523740</v>
       </c>
       <c r="B13" t="n">
-        <v>5113</v>
+        <v>56398</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1929,25 +1924,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100526</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1957,10 +1952,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>497354.1644349985</v>
+        <v>497366.3615979423</v>
       </c>
       <c r="R13" t="n">
-        <v>6754111.484663551</v>
+        <v>6754139.679549156</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2003,6 +1998,11 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Gamla hack</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2029,7 +2029,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111523656</v>
+        <v>111523731</v>
       </c>
       <c r="B14" t="n">
         <v>89845</v>
@@ -2069,10 +2069,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>497390.1961838813</v>
+        <v>497307.3714758331</v>
       </c>
       <c r="R14" t="n">
-        <v>6754097.842248607</v>
+        <v>6754063.864355386</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2141,7 +2141,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111523683</v>
+        <v>111523656</v>
       </c>
       <c r="B15" t="n">
         <v>89845</v>
@@ -2181,10 +2181,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>497391.6869587752</v>
+        <v>497390.1961838813</v>
       </c>
       <c r="R15" t="n">
-        <v>6754138.20205555</v>
+        <v>6754097.842248607</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>

--- a/artfynd/A 35869-2023.xlsx
+++ b/artfynd/A 35869-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111523683</v>
+        <v>111523728</v>
       </c>
       <c r="B2" t="n">
-        <v>89845</v>
+        <v>89686</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>497391.6869587752</v>
+        <v>497338.5868253836</v>
       </c>
       <c r="R2" t="n">
-        <v>6754138.20205555</v>
+        <v>6754122.194367126</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111523741</v>
+        <v>111523701</v>
       </c>
       <c r="B3" t="n">
         <v>89686</v>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>497384.3941364431</v>
+        <v>497367.2942720717</v>
       </c>
       <c r="R3" t="n">
-        <v>6754155.713205664</v>
+        <v>6754083.757028132</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111523730</v>
+        <v>111523727</v>
       </c>
       <c r="B4" t="n">
-        <v>89405</v>
+        <v>89845</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111523657</v>
+        <v>111523712</v>
       </c>
       <c r="B5" t="n">
-        <v>89686</v>
+        <v>89405</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>497390.1961838813</v>
+        <v>497301.0581945881</v>
       </c>
       <c r="R5" t="n">
-        <v>6754097.842248607</v>
+        <v>6754088.183226726</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111523712</v>
+        <v>111523730</v>
       </c>
       <c r="B6" t="n">
         <v>89405</v>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>497301.0581945881</v>
+        <v>497338.5868253836</v>
       </c>
       <c r="R6" t="n">
-        <v>6754088.183226726</v>
+        <v>6754122.194367126</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111523728</v>
+        <v>111523741</v>
       </c>
       <c r="B7" t="n">
         <v>89686</v>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>497338.5868253836</v>
+        <v>497384.3941364431</v>
       </c>
       <c r="R7" t="n">
-        <v>6754122.194367126</v>
+        <v>6754155.713205664</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111523695</v>
+        <v>111523683</v>
       </c>
       <c r="B8" t="n">
-        <v>5113</v>
+        <v>89845</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1364,25 +1364,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100526</v>
+        <v>1209</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>497354.1644349985</v>
+        <v>497391.6869587752</v>
       </c>
       <c r="R8" t="n">
-        <v>6754111.484663551</v>
+        <v>6754138.20205555</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1576,10 +1576,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111523727</v>
+        <v>111523657</v>
       </c>
       <c r="B10" t="n">
-        <v>89845</v>
+        <v>89686</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1588,25 +1588,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>497338.5868253836</v>
+        <v>497390.1961838813</v>
       </c>
       <c r="R10" t="n">
-        <v>6754122.194367126</v>
+        <v>6754097.842248607</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1688,10 +1688,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111523697</v>
+        <v>111523731</v>
       </c>
       <c r="B11" t="n">
-        <v>77515</v>
+        <v>89845</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1700,25 +1700,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>1209</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>497380.5053056676</v>
+        <v>497307.3714758331</v>
       </c>
       <c r="R11" t="n">
-        <v>6754165.927741241</v>
+        <v>6754063.864355386</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111523701</v>
+        <v>111523656</v>
       </c>
       <c r="B12" t="n">
-        <v>89686</v>
+        <v>89845</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1812,25 +1812,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1840,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>497367.2942720717</v>
+        <v>497390.1961838813</v>
       </c>
       <c r="R12" t="n">
-        <v>6754083.757028132</v>
+        <v>6754097.842248607</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1912,10 +1912,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111523740</v>
+        <v>111523697</v>
       </c>
       <c r="B13" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1928,21 +1928,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>497366.3615979423</v>
+        <v>497380.5053056676</v>
       </c>
       <c r="R13" t="n">
-        <v>6754139.679549156</v>
+        <v>6754165.927741241</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1998,11 +1998,6 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Gamla hack</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2029,10 +2024,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111523731</v>
+        <v>111523740</v>
       </c>
       <c r="B14" t="n">
-        <v>89845</v>
+        <v>56398</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2041,25 +2036,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1209</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2069,10 +2064,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>497307.3714758331</v>
+        <v>497366.3615979423</v>
       </c>
       <c r="R14" t="n">
-        <v>6754063.864355386</v>
+        <v>6754139.679549156</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2115,6 +2110,11 @@
       <c r="AB14" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Gamla hack</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2141,10 +2141,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111523656</v>
+        <v>111523695</v>
       </c>
       <c r="B15" t="n">
-        <v>89845</v>
+        <v>5113</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2153,25 +2153,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1209</v>
+        <v>100526</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2181,10 +2181,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>497390.1961838813</v>
+        <v>497354.1644349985</v>
       </c>
       <c r="R15" t="n">
-        <v>6754097.842248607</v>
+        <v>6754111.484663551</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>

--- a/artfynd/A 35869-2023.xlsx
+++ b/artfynd/A 35869-2023.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111523701</v>
+        <v>111523727</v>
       </c>
       <c r="B3" t="n">
-        <v>89686</v>
+        <v>89845</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>497367.2942720717</v>
+        <v>497338.5868253836</v>
       </c>
       <c r="R3" t="n">
-        <v>6754083.757028132</v>
+        <v>6754122.194367126</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111523727</v>
+        <v>111523730</v>
       </c>
       <c r="B4" t="n">
-        <v>89845</v>
+        <v>89405</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111523712</v>
+        <v>111523741</v>
       </c>
       <c r="B5" t="n">
-        <v>89405</v>
+        <v>89686</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>497301.0581945881</v>
+        <v>497384.3941364431</v>
       </c>
       <c r="R5" t="n">
-        <v>6754088.183226726</v>
+        <v>6754155.713205664</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111523730</v>
+        <v>111523683</v>
       </c>
       <c r="B6" t="n">
-        <v>89405</v>
+        <v>89845</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>497338.5868253836</v>
+        <v>497391.6869587752</v>
       </c>
       <c r="R6" t="n">
-        <v>6754122.194367126</v>
+        <v>6754138.20205555</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111523741</v>
+        <v>111523657</v>
       </c>
       <c r="B7" t="n">
         <v>89686</v>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>497384.3941364431</v>
+        <v>497390.1961838813</v>
       </c>
       <c r="R7" t="n">
-        <v>6754155.713205664</v>
+        <v>6754097.842248607</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111523683</v>
+        <v>111523656</v>
       </c>
       <c r="B8" t="n">
         <v>89845</v>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>497391.6869587752</v>
+        <v>497390.1961838813</v>
       </c>
       <c r="R8" t="n">
-        <v>6754138.20205555</v>
+        <v>6754097.842248607</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111523724</v>
+        <v>111523697</v>
       </c>
       <c r="B9" t="n">
-        <v>93881</v>
+        <v>77515</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1476,25 +1476,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2869</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Girg.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>497291.3182300103</v>
+        <v>497380.5053056676</v>
       </c>
       <c r="R9" t="n">
-        <v>6754089.649475355</v>
+        <v>6754165.927741241</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1576,10 +1576,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111523657</v>
+        <v>111523740</v>
       </c>
       <c r="B10" t="n">
-        <v>89686</v>
+        <v>56398</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1592,21 +1592,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>658</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>497390.1961838813</v>
+        <v>497366.3615979423</v>
       </c>
       <c r="R10" t="n">
-        <v>6754097.842248607</v>
+        <v>6754139.679549156</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1662,6 +1662,11 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Gamla hack</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1688,10 +1693,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111523731</v>
+        <v>111523695</v>
       </c>
       <c r="B11" t="n">
-        <v>89845</v>
+        <v>5113</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1700,25 +1705,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1209</v>
+        <v>100526</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1728,10 +1733,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>497307.3714758331</v>
+        <v>497354.1644349985</v>
       </c>
       <c r="R11" t="n">
-        <v>6754063.864355386</v>
+        <v>6754111.484663551</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1800,10 +1805,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111523656</v>
+        <v>111523701</v>
       </c>
       <c r="B12" t="n">
-        <v>89845</v>
+        <v>89686</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1812,25 +1817,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1840,10 +1845,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>497390.1961838813</v>
+        <v>497367.2942720717</v>
       </c>
       <c r="R12" t="n">
-        <v>6754097.842248607</v>
+        <v>6754083.757028132</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1912,10 +1917,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111523697</v>
+        <v>111523712</v>
       </c>
       <c r="B13" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1928,21 +1933,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1952,10 +1957,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>497380.5053056676</v>
+        <v>497301.0581945881</v>
       </c>
       <c r="R13" t="n">
-        <v>6754165.927741241</v>
+        <v>6754088.183226726</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2024,10 +2029,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111523740</v>
+        <v>111523724</v>
       </c>
       <c r="B14" t="n">
-        <v>56398</v>
+        <v>93881</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2036,25 +2041,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>2869</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Sphagnum wulfianum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Girg.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2064,10 +2069,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>497366.3615979423</v>
+        <v>497291.3182300103</v>
       </c>
       <c r="R14" t="n">
-        <v>6754139.679549156</v>
+        <v>6754089.649475355</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2110,11 +2115,6 @@
       <c r="AB14" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>Gamla hack</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2141,10 +2141,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111523695</v>
+        <v>111523731</v>
       </c>
       <c r="B15" t="n">
-        <v>5113</v>
+        <v>89845</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2153,25 +2153,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100526</v>
+        <v>1209</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2181,10 +2181,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>497354.1644349985</v>
+        <v>497307.3714758331</v>
       </c>
       <c r="R15" t="n">
-        <v>6754111.484663551</v>
+        <v>6754063.864355386</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>

--- a/artfynd/A 35869-2023.xlsx
+++ b/artfynd/A 35869-2023.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111523727</v>
+        <v>111523701</v>
       </c>
       <c r="B3" t="n">
-        <v>89845</v>
+        <v>89686</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>497338.5868253836</v>
+        <v>497367.2942720717</v>
       </c>
       <c r="R3" t="n">
-        <v>6754122.194367126</v>
+        <v>6754083.757028132</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111523730</v>
+        <v>111523727</v>
       </c>
       <c r="B4" t="n">
-        <v>89405</v>
+        <v>89845</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111523741</v>
+        <v>111523712</v>
       </c>
       <c r="B5" t="n">
-        <v>89686</v>
+        <v>89405</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>497384.3941364431</v>
+        <v>497301.0581945881</v>
       </c>
       <c r="R5" t="n">
-        <v>6754155.713205664</v>
+        <v>6754088.183226726</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111523683</v>
+        <v>111523730</v>
       </c>
       <c r="B6" t="n">
-        <v>89845</v>
+        <v>89405</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>497391.6869587752</v>
+        <v>497338.5868253836</v>
       </c>
       <c r="R6" t="n">
-        <v>6754138.20205555</v>
+        <v>6754122.194367126</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111523657</v>
+        <v>111523741</v>
       </c>
       <c r="B7" t="n">
         <v>89686</v>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>497390.1961838813</v>
+        <v>497384.3941364431</v>
       </c>
       <c r="R7" t="n">
-        <v>6754097.842248607</v>
+        <v>6754155.713205664</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111523656</v>
+        <v>111523683</v>
       </c>
       <c r="B8" t="n">
         <v>89845</v>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>497390.1961838813</v>
+        <v>497391.6869587752</v>
       </c>
       <c r="R8" t="n">
-        <v>6754097.842248607</v>
+        <v>6754138.20205555</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111523697</v>
+        <v>111523724</v>
       </c>
       <c r="B9" t="n">
-        <v>77515</v>
+        <v>93881</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1476,25 +1476,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>2869</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Sphagnum wulfianum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Girg.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>497380.5053056676</v>
+        <v>497291.3182300103</v>
       </c>
       <c r="R9" t="n">
-        <v>6754165.927741241</v>
+        <v>6754089.649475355</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1576,10 +1576,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111523740</v>
+        <v>111523657</v>
       </c>
       <c r="B10" t="n">
-        <v>56398</v>
+        <v>89686</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1592,21 +1592,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>658</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>497366.3615979423</v>
+        <v>497390.1961838813</v>
       </c>
       <c r="R10" t="n">
-        <v>6754139.679549156</v>
+        <v>6754097.842248607</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1662,11 +1662,6 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Gamla hack</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1693,10 +1688,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111523695</v>
+        <v>111523731</v>
       </c>
       <c r="B11" t="n">
-        <v>5113</v>
+        <v>89845</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1705,25 +1700,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100526</v>
+        <v>1209</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1733,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>497354.1644349985</v>
+        <v>497307.3714758331</v>
       </c>
       <c r="R11" t="n">
-        <v>6754111.484663551</v>
+        <v>6754063.864355386</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1805,10 +1800,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111523701</v>
+        <v>111523656</v>
       </c>
       <c r="B12" t="n">
-        <v>89686</v>
+        <v>89845</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1817,25 +1812,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1845,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>497367.2942720717</v>
+        <v>497390.1961838813</v>
       </c>
       <c r="R12" t="n">
-        <v>6754083.757028132</v>
+        <v>6754097.842248607</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1917,10 +1912,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111523712</v>
+        <v>111523697</v>
       </c>
       <c r="B13" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1933,21 +1928,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1957,10 +1952,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>497301.0581945881</v>
+        <v>497380.5053056676</v>
       </c>
       <c r="R13" t="n">
-        <v>6754088.183226726</v>
+        <v>6754165.927741241</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2029,10 +2024,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111523724</v>
+        <v>111523740</v>
       </c>
       <c r="B14" t="n">
-        <v>93881</v>
+        <v>56398</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2041,25 +2036,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2869</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Girg.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2069,10 +2064,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>497291.3182300103</v>
+        <v>497366.3615979423</v>
       </c>
       <c r="R14" t="n">
-        <v>6754089.649475355</v>
+        <v>6754139.679549156</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2115,6 +2110,11 @@
       <c r="AB14" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Gamla hack</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2141,10 +2141,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111523731</v>
+        <v>111523695</v>
       </c>
       <c r="B15" t="n">
-        <v>89845</v>
+        <v>5113</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2153,25 +2153,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1209</v>
+        <v>100526</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2181,10 +2181,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>497307.3714758331</v>
+        <v>497354.1644349985</v>
       </c>
       <c r="R15" t="n">
-        <v>6754063.864355386</v>
+        <v>6754111.484663551</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
